--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H2">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N2">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O2">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P2">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q2">
-        <v>0.8468922664555556</v>
+        <v>1.792910610887666</v>
       </c>
       <c r="R2">
-        <v>7.622030398100001</v>
+        <v>16.136195497989</v>
       </c>
       <c r="S2">
-        <v>0.01732622542971233</v>
+        <v>0.0235751283298978</v>
       </c>
       <c r="T2">
-        <v>0.01732622542971233</v>
+        <v>0.0235751283298978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H3">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.172996</v>
       </c>
       <c r="O3">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P3">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q3">
-        <v>0.001927944311111111</v>
+        <v>0.002628943324888889</v>
       </c>
       <c r="R3">
-        <v>0.0173514988</v>
+        <v>0.023660489924</v>
       </c>
       <c r="S3">
-        <v>3.944303080018216E-05</v>
+        <v>3.456819089580755E-05</v>
       </c>
       <c r="T3">
-        <v>3.944303080018214E-05</v>
+        <v>3.456819089580754E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H4">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.732138</v>
       </c>
       <c r="O4">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P4">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q4">
-        <v>0.008159271266666667</v>
+        <v>0.01112597579133333</v>
       </c>
       <c r="R4">
-        <v>0.07343344139999999</v>
+        <v>0.100133782122</v>
       </c>
       <c r="S4">
-        <v>0.0001669272219241125</v>
+        <v>0.0001462963660782604</v>
       </c>
       <c r="T4">
-        <v>0.0001669272219241124</v>
+        <v>0.0001462963660782604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.13889</v>
       </c>
       <c r="I5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N5">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O5">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P5">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q5">
-        <v>9.616322366336666</v>
+        <v>14.92975722301</v>
       </c>
       <c r="R5">
-        <v>86.54690129703</v>
+        <v>134.36781500709</v>
       </c>
       <c r="S5">
-        <v>0.1967364394780166</v>
+        <v>0.1963125993729377</v>
       </c>
       <c r="T5">
-        <v>0.1967364394780166</v>
+        <v>0.1963125993729376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.13889</v>
       </c>
       <c r="I6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.172996</v>
       </c>
       <c r="O6">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P6">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q6">
         <v>0.02189149049333333</v>
@@ -818,10 +818,10 @@
         <v>0.19702341444</v>
       </c>
       <c r="S6">
-        <v>0.0004478691261018888</v>
+        <v>0.0002878529997976607</v>
       </c>
       <c r="T6">
-        <v>0.0004478691261018888</v>
+        <v>0.0002878529997976606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.13889</v>
       </c>
       <c r="I7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.732138</v>
       </c>
       <c r="O7">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P7">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q7">
         <v>0.09264718297999999</v>
@@ -880,10 +880,10 @@
         <v>0.8338246468199999</v>
       </c>
       <c r="S7">
-        <v>0.001895431144338509</v>
+        <v>0.001218225389985084</v>
       </c>
       <c r="T7">
-        <v>0.001895431144338509</v>
+        <v>0.001218225389985084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.33077566666667</v>
+        <v>39.327127</v>
       </c>
       <c r="N8">
-        <v>75.992327</v>
+        <v>117.981381</v>
       </c>
       <c r="O8">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449503</v>
       </c>
       <c r="P8">
-        <v>0.988229338287255</v>
+        <v>0.9923865713449502</v>
       </c>
       <c r="Q8">
-        <v>37.84065786818234</v>
+        <v>58.749261267347</v>
       </c>
       <c r="R8">
-        <v>340.5659208136411</v>
+        <v>528.7433514061231</v>
       </c>
       <c r="S8">
-        <v>0.774166673379526</v>
+        <v>0.7724988436421147</v>
       </c>
       <c r="T8">
-        <v>0.774166673379526</v>
+        <v>0.7724988436421149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.172996</v>
       </c>
       <c r="O9">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="P9">
-        <v>0.002249697164903793</v>
+        <v>0.001455135597170125</v>
       </c>
       <c r="Q9">
         <v>0.08614399251866668</v>
@@ -1004,10 +1004,10 @@
         <v>0.7752959326680001</v>
       </c>
       <c r="S9">
-        <v>0.001762385008001723</v>
+        <v>0.001132714406476657</v>
       </c>
       <c r="T9">
-        <v>0.001762385008001722</v>
+        <v>0.001132714406476657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>0.732138</v>
       </c>
       <c r="O10">
-        <v>0.009520964547841182</v>
+        <v>0.00615829305787961</v>
       </c>
       <c r="P10">
-        <v>0.009520964547841182</v>
+        <v>0.006158293057879609</v>
       </c>
       <c r="Q10">
         <v>0.364570801606</v>
@@ -1066,10 +1066,10 @@
         <v>3.281137214454</v>
       </c>
       <c r="S10">
-        <v>0.007458606181578562</v>
+        <v>0.004793771301816264</v>
       </c>
       <c r="T10">
-        <v>0.007458606181578562</v>
+        <v>0.004793771301816264</v>
       </c>
     </row>
   </sheetData>
